--- a/ExcelTemplate/总账映射模板.xlsx
+++ b/ExcelTemplate/总账映射模板.xlsx
@@ -9,10 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="配置信息" sheetId="1" r:id="rId1"/>
+    <sheet name="index" sheetId="1" r:id="rId1"/>
+    <sheet name="vt_etl_mas_fin_payment_schedule" sheetId="2" r:id="rId2"/>
+    <sheet name="vt_ext_fin_payment_schedule" sheetId="6" r:id="rId3"/>
+    <sheet name="vt_ext_abcd" sheetId="7" r:id="rId4"/>
+    <sheet name="模板示例临时视图4" sheetId="8" r:id="rId5"/>
+    <sheet name="模板示例临时视图5" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -83,8 +88,128 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>可以更具具体的子表需求，自行扩展子表行数，复制子表这一行即可添加更多的子表</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>可以更具具体的子表需求，自行扩展子表行数，复制子表这一行即可添加更多的子表</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>可以更具具体的子表需求，自行扩展子表行数，复制子表这一行即可添加更多的子表</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>可以更具具体的子表需求，自行扩展子表行数，复制子表这一行即可添加更多的子表</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>可以更具具体的子表需求，自行扩展子表行数，复制子表这一行即可添加更多的子表</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="87">
   <si>
     <t>注释</t>
   </si>
@@ -128,9 +253,6 @@
     <t>t</t>
   </si>
   <si>
-    <t>数据日期</t>
-  </si>
-  <si>
     <t>子表</t>
   </si>
   <si>
@@ -191,84 +313,175 @@
     <t>2018-01-18</t>
   </si>
   <si>
-    <t>SUBJECT_CODE</t>
-  </si>
-  <si>
-    <t>CURRENCY_CODE</t>
-  </si>
-  <si>
-    <t>科目编号</t>
-  </si>
-  <si>
-    <t>币种编号</t>
-  </si>
-  <si>
-    <t>t.as_of_date</t>
-  </si>
-  <si>
-    <t>t.org_unit_id</t>
-  </si>
-  <si>
-    <t>t.gl_account_id</t>
-  </si>
-  <si>
-    <t>t.iso_currency_cd</t>
-  </si>
-  <si>
-    <t>mas_fin_investment_info</t>
-  </si>
-  <si>
     <t>proc_app_ledger</t>
   </si>
   <si>
-    <t>FTP_PD_GL</t>
-  </si>
-  <si>
-    <t>execute immediate 'truncate table FTP_PD_GL';</t>
-  </si>
-  <si>
-    <t>UUID</t>
-  </si>
-  <si>
-    <t>data_date</t>
-  </si>
-  <si>
-    <t>ORGAN_CODE</t>
-  </si>
-  <si>
-    <t>机构编号</t>
-  </si>
-  <si>
-    <t>gl_bal</t>
-  </si>
-  <si>
-    <t>总账余额</t>
-  </si>
-  <si>
-    <t>sys_guid()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">case substr(t.gl_account_id,0,1) 
-    when '1'  then t.debit_balance - t.creadit_balance
-    when '2'  then t.creadit_balance - t.debit_balance 
-end
-</t>
-  </si>
-  <si>
-    <t>资产余额在借方，负债余额在贷方。默认情况下，只取资产负债总账数据到产品</t>
-  </si>
-  <si>
-    <t>where t.as_of_date = p_as_of_date  and  substr(t.gl_account_id,0,1) in ('1','2')</t>
-  </si>
-  <si>
     <t>将总账业务数据加载到FTP系统总账接口表中</t>
+  </si>
+  <si>
+    <t>execute immediate 'truncate table mas_fin_payment_current ';</t>
+  </si>
+  <si>
+    <t>account_number</t>
+  </si>
+  <si>
+    <t>next_payment_date</t>
+  </si>
+  <si>
+    <t>caldays</t>
+  </si>
+  <si>
+    <t>calrate</t>
+  </si>
+  <si>
+    <t>cur_payment</t>
+  </si>
+  <si>
+    <t>cur_payment_principal</t>
+  </si>
+  <si>
+    <t>cur_payment_interest</t>
+  </si>
+  <si>
+    <t>cur_book_bal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mas_fin_payment_current </t>
+  </si>
+  <si>
+    <t>vt_etl_mas_fin_payment_schedule</t>
+  </si>
+  <si>
+    <t>账号</t>
+  </si>
+  <si>
+    <t>下次支付日期</t>
+  </si>
+  <si>
+    <t>计息天数</t>
+  </si>
+  <si>
+    <t>执行利率</t>
+  </si>
+  <si>
+    <t>支付本息</t>
+  </si>
+  <si>
+    <t>支付本金</t>
+  </si>
+  <si>
+    <t>支付利息</t>
+  </si>
+  <si>
+    <t>剩余本金</t>
+  </si>
+  <si>
+    <t>regitid</t>
+  </si>
+  <si>
+    <t>planprincipal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latest_payment_date </t>
+  </si>
+  <si>
+    <t>mas_fin_payment_schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> t.next_payment_date = t.latest_payment_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t.planprinintersum   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">t.planinterest </t>
+  </si>
+  <si>
+    <t>下次支付日</t>
+  </si>
+  <si>
+    <t>下次支付本金</t>
+  </si>
+  <si>
+    <t>下次支付利息</t>
+  </si>
+  <si>
+    <t>数据日期最近还款日</t>
+  </si>
+  <si>
+    <t>放款编码</t>
+  </si>
+  <si>
+    <t>还款日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to_date(t.payplandate,'YYYY-MM-DD') &gt; p_as_of_date</t>
+  </si>
+  <si>
+    <t>sum(t.planprincipal)  
+    over(partition by t.regitid order by regitid desc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min(to_date(t.payplandate,'YYYY-MM-DD'))  over(    
+    partition by  t.regitid 
+    order by to_date(t.payplandate,'YYYY-MM-DD') 
+    asc    
+)   </t>
+  </si>
+  <si>
+    <t>to_date(t.payplandate ,'YYYY-MM-DD')</t>
+  </si>
+  <si>
+    <t>payplandate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planprinintersum   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">planinterest </t>
+  </si>
+  <si>
+    <t>ext_fin_payment_schedule</t>
+  </si>
+  <si>
+    <t>vt_ext_fin_payment_schedule</t>
+  </si>
+  <si>
+    <t>vt_ext_abcd</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t.regitid = s.regitid</t>
+  </si>
+  <si>
+    <t>inner join</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -348,6 +561,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -389,7 +609,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -730,8 +950,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="0.59999389629810485"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="0.59999389629810485"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -755,8 +1062,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -807,46 +1118,113 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="11" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="11" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="11" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -859,12 +1237,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -880,10 +1252,6 @@
     <xf numFmtId="49" fontId="7" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -931,50 +1299,106 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="11" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="11" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="20" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="11" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="32" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="20" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="33" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="34" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="27">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Accent3" xfId="11" builtinId="37"/>
     <cellStyle name="Accent5" xfId="12" builtinId="45"/>
@@ -989,6 +1413,8 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -997,6 +1423,8 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1272,10 +1700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1291,158 +1719,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27"/>
+      <c r="A1" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="B2" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="30"/>
+        <v>25</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-    </row>
-    <row r="5" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="28" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+    </row>
+    <row r="7" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="48"/>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-    </row>
-    <row r="7" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
-      <c r="B7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
     </row>
     <row r="8" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
+      <c r="C8" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="49"/>
+      <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-    </row>
-    <row r="10" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
-      <c r="B10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
+      <c r="C10" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
     </row>
     <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
+      <c r="B11" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>13</v>
@@ -1450,7 +1878,7 @@
     </row>
     <row r="12" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="8" t="s">
@@ -1466,9 +1894,9 @@
       </c>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="8" t="s">
@@ -1484,71 +1912,71 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="54"/>
+      <c r="B14" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:8" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="30"/>
+        <v>30</v>
+      </c>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="46"/>
     </row>
     <row r="16" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="30"/>
-    </row>
-    <row r="17" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
+        <v>28</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="46"/>
+    </row>
+    <row r="17" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
     </row>
     <row r="18" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51" t="s">
+      <c r="B18" s="62"/>
+      <c r="C18" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
     </row>
     <row r="19" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
@@ -1557,163 +1985,227 @@
       <c r="B19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21" t="s">
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="H19" s="42"/>
+    </row>
+    <row r="20" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="C20" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="H20" s="37"/>
+    </row>
+    <row r="21" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-    </row>
-    <row r="21" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-    </row>
-    <row r="24" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" spans="1:8" ht="101" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="24" t="s">
+      <c r="C26" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="48"/>
-    </row>
-    <row r="26" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="30"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-    </row>
-    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="40"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
+      <c r="C27" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="52"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
       <c r="H28" s="46"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="58"/>
+    </row>
+    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="55"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="61"/>
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
-  <mergeCells count="35">
-    <mergeCell ref="B26:H26"/>
+  <mergeCells count="39">
+    <mergeCell ref="B28:H28"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:H28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:H30"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A17:H17"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
     <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C6:H6"/>
@@ -1748,4 +2240,1699 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="6" max="6" width="51.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
+    </row>
+    <row r="5" spans="1:8" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="83"/>
+    </row>
+    <row r="6" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+    </row>
+    <row r="7" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="63"/>
+    </row>
+    <row r="8" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="70"/>
+    </row>
+    <row r="9" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="38"/>
+    </row>
+    <row r="11" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="38"/>
+    </row>
+    <row r="12" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="38"/>
+    </row>
+    <row r="13" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="72"/>
+    </row>
+    <row r="14" spans="1:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="77"/>
+    </row>
+    <row r="15" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="77"/>
+    </row>
+    <row r="16" spans="1:8" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A5:H5"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
+      <formula1>"left join, right join, inner join, full join"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
+    </row>
+    <row r="5" spans="1:8" ht="28" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="83"/>
+    </row>
+    <row r="6" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+    </row>
+    <row r="7" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="63"/>
+    </row>
+    <row r="8" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="70"/>
+    </row>
+    <row r="9" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="38"/>
+    </row>
+    <row r="11" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="38"/>
+    </row>
+    <row r="12" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="38"/>
+    </row>
+    <row r="13" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="72"/>
+    </row>
+    <row r="14" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="77"/>
+    </row>
+    <row r="15" spans="1:8" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="77"/>
+    </row>
+    <row r="16" spans="1:8" ht="91" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:H7"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
+      <formula1>"left join, right join, inner join, full join"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
+    </row>
+    <row r="5" spans="1:8" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="83"/>
+    </row>
+    <row r="6" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+    </row>
+    <row r="7" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="63"/>
+    </row>
+    <row r="8" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="70"/>
+    </row>
+    <row r="9" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="38"/>
+    </row>
+    <row r="11" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="38"/>
+    </row>
+    <row r="12" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="38"/>
+    </row>
+    <row r="13" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="72"/>
+    </row>
+    <row r="14" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="78">
+        <v>7</v>
+      </c>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="77"/>
+    </row>
+    <row r="15" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="76">
+        <v>8</v>
+      </c>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="77"/>
+    </row>
+    <row r="16" spans="1:8" ht="95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="76">
+        <v>9</v>
+      </c>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G15:H15"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
+      <formula1>"left join, right join, inner join, full join"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
+    </row>
+    <row r="5" spans="1:8" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="83"/>
+    </row>
+    <row r="6" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+    </row>
+    <row r="7" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="63"/>
+    </row>
+    <row r="8" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="70"/>
+    </row>
+    <row r="9" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="38"/>
+    </row>
+    <row r="11" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="38"/>
+    </row>
+    <row r="12" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="38"/>
+    </row>
+    <row r="13" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="72"/>
+    </row>
+    <row r="14" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="77"/>
+    </row>
+    <row r="15" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="77"/>
+    </row>
+    <row r="16" spans="1:8" ht="95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:H7"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
+      <formula1>"left join, right join, inner join, full join"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
+    </row>
+    <row r="5" spans="1:8" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="83"/>
+    </row>
+    <row r="6" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+    </row>
+    <row r="7" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="63"/>
+    </row>
+    <row r="8" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="70"/>
+    </row>
+    <row r="9" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="38"/>
+    </row>
+    <row r="11" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="38"/>
+    </row>
+    <row r="12" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="38"/>
+    </row>
+    <row r="13" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="72"/>
+    </row>
+    <row r="14" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="77"/>
+    </row>
+    <row r="15" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="77"/>
+    </row>
+    <row r="16" spans="1:8" ht="95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:H7"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
+      <formula1>"left join, right join, inner join, full join"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>